--- a/public/用户模板.xlsx
+++ b/public/用户模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6880"/>
+    <workbookView windowWidth="18350" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1199,6 +1199,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"外部,开发,测试,应用,领导,其他"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/public/用户模板.xlsx
+++ b/public/用户模板.xlsx
@@ -19,7 +19,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>Name</t>
   </si>
   <si>
     <t>Company</t>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/public/用户模板.xlsx
+++ b/public/用户模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>UserType</t>
+  </si>
+  <si>
+    <t>Days</t>
   </si>
 </sst>
 </file>
@@ -1173,15 +1176,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1197,11 +1200,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
-      <formula1>"外部,开发,测试,应用,领导,其他"</formula1>
+      <formula1>"外部,开发,测试,应用,领导,其它"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
